--- a/excel/sablonlar/gu_reports_summary.xlsx
+++ b/excel/sablonlar/gu_reports_summary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ferdi\socket\excel\sablonlar\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\socket\excel\sablonlar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23800C28-9291-4B60-A3D1-CD20C0E320AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{893AD747-00E0-4D97-A812-21B9D4FAC4D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$$-409]#,##0.00"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -58,6 +58,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="162"/>
@@ -85,7 +94,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor rgb="FFCC6600"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -126,7 +135,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -134,19 +143,22 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -155,6 +167,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFCC6600"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -431,395 +448,395 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29:K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.88671875" defaultRowHeight="22.8" customHeight="1" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:11" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
+      <c r="A1" s="4"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
       <c r="D1" s="1"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
     </row>
     <row r="2" spans="1:11" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="1"/>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="6" t="s">
         <v>2</v>
       </c>
       <c r="H2" s="1"/>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="6" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
       <c r="D3" s="1"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:11" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
       <c r="D4" s="1"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
       <c r="H4" s="1"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
     </row>
     <row r="5" spans="1:11" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
       <c r="H5" s="1"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
     </row>
     <row r="6" spans="1:11" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
       <c r="H6" s="1"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
     </row>
     <row r="7" spans="1:11" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
     </row>
     <row r="8" spans="1:11" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
       <c r="H8" s="1"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
     </row>
     <row r="9" spans="1:11" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
     </row>
     <row r="10" spans="1:11" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
       <c r="H10" s="1"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
     </row>
     <row r="11" spans="1:11" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
       <c r="H11" s="1"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
     </row>
     <row r="12" spans="1:11" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
       <c r="H12" s="1"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
     </row>
     <row r="13" spans="1:11" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
       <c r="H13" s="1"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
     </row>
     <row r="14" spans="1:11" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="3" t="s">
+      <c r="I14" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
     </row>
     <row r="16" spans="1:11" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
     </row>
     <row r="17" spans="1:11" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F17" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="G17" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="I17" s="2" t="s">
+      <c r="I17" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="J17" s="2" t="s">
+      <c r="J17" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="K17" s="2" t="s">
+      <c r="K17" s="6" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
     </row>
     <row r="19" spans="1:11" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
     </row>
     <row r="20" spans="1:11" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
     </row>
     <row r="21" spans="1:11" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
     </row>
     <row r="22" spans="1:11" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
     </row>
     <row r="23" spans="1:11" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
     </row>
     <row r="24" spans="1:11" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
     </row>
     <row r="25" spans="1:11" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
     </row>
     <row r="26" spans="1:11" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
     </row>
     <row r="27" spans="1:11" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
     </row>
     <row r="28" spans="1:11" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
     </row>
     <row r="29" spans="1:11" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="E29" s="3" t="s">
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="E29" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="I29" s="3" t="s">
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="I29" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="6">
